--- a/data/trans_dic/P24_8_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P24_8_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sensación de opresión en el pecho con bastante o mucha frecuencia</t>
+          <t>Población con sensación de opresión en el pecho con bastante o mucha frecuencia (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>12,57%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>7,79%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3,75%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>6,58%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>6,28%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,56; 19,72</t>
+          <t>0,0; 17,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 12,52</t>
+          <t>0,0; 15,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,07; 26,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,22; 21,09</t>
+          <t>8,62; 31,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,97; 17,66</t>
+          <t>4,36; 25,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,4; 26,2</t>
+          <t>2,31; 18,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,3; 20,3</t>
+          <t>5,96; 27,39</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,79; 14,08</t>
+          <t>4,55; 23,91</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,8; 10,12</t>
+          <t>6,42; 20,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,59; 13,32</t>
+          <t>2,67; 15,72</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,2; 9,08</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2,35; 13,04</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2,8; 13,45</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>19,65%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>7,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>22,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>21,17%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>11,56%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>11,78%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>10,01%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>8,56%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,94; 41,86</t>
+          <t>4,42; 50,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 14,75</t>
+          <t>1,77; 17,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,43; 14,32</t>
+          <t>1,89; 19,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,18; 13,21</t>
+          <t>1,33; 15,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,19; 24,12</t>
+          <t>1,24; 17,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,07; 24,49</t>
+          <t>12,68; 34,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,6; 20,9</t>
+          <t>7,12; 28,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,66; 19,43</t>
+          <t>7,46; 26,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,77; 28,08</t>
+          <t>7,39; 26,87</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,35; 17,15</t>
+          <t>5,27; 23,97</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,35; 14,6</t>
+          <t>11,67; 42,38</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,64; 13,03</t>
+          <t>6,37; 19,52</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>6,59; 20,17</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>5,27; 17,82</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>3,76; 15,89</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,02%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>7,53%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>10,82%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>8,05%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>10,36%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>8,92%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,73; 23,35</t>
+          <t>1,91; 18,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 11,84</t>
+          <t>3,47; 20,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 6,54</t>
+          <t>0,0; 7,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,92; 13,69</t>
+          <t>2,39; 18,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,47; 19,32</t>
+          <t>1,76; 16,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,16; 15,92</t>
+          <t>8,76; 22,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,64; 18,74</t>
+          <t>6,79; 19,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,06; 17,18</t>
+          <t>6,55; 19,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,06; 18,11</t>
+          <t>6,49; 19,81</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,52; 12,43</t>
+          <t>5,61; 18,59</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,88; 11,32</t>
+          <t>7,25; 17,34</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,14; 13,73</t>
+          <t>6,65; 16,86</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>4,38; 13,15</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>6,04; 15,53</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>5,08; 14,89</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>16,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>17,76%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>9,51%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>10,9%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>11,03%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>10,45%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,81; 11,8</t>
+          <t>0,0; 7,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 8,55</t>
+          <t>0,0; 7,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,9; 11,0</t>
+          <t>1,24; 11,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,85; 11,34</t>
+          <t>2,45; 13,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,61; 15,69</t>
+          <t>0,0; 9,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,43; 15,31</t>
+          <t>6,84; 19,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,9; 19,55</t>
+          <t>9,58; 24,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,99; 16,34</t>
+          <t>9,13; 23,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,18; 12,34</t>
+          <t>10,29; 24,28</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,69; 10,61</t>
+          <t>11,51; 27,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,06; 14,31</t>
+          <t>4,41; 12,21</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,95; 12,41</t>
+          <t>6,05; 14,71</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>7,08; 16,17</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>7,05; 16,29</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>6,56; 15,6</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>11,04%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>3,03%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>5,73%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>10,75%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>9,77%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,68; 9,51</t>
+          <t>0,0; 9,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 5,84</t>
+          <t>0,0; 8,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,13; 9,42</t>
+          <t>0,0; 9,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,43; 21,92</t>
+          <t>2,7; 29,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,58; 19,39</t>
+          <t>2,84; 17,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,85; 13,43</t>
+          <t>3,56; 21,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,01; 18,12</t>
+          <t>0,0; 13,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,0; 18,05</t>
+          <t>3,59; 19,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,84; 12,02</t>
+          <t>3,74; 20,68</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,05; 7,62</t>
+          <t>3,45; 21,34</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,03; 11,03</t>
+          <t>2,54; 11,66</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,94; 15,34</t>
+          <t>0,79; 7,34</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>2,43; 11,15</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>4,92; 23,53</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>5,11; 17,35</t>
         </is>
       </c>
     </row>
@@ -1356,17 +1531,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1376,42 +1551,57 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>8,67%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>6,23%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>3,43%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>6,68%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>13,33%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,1</t>
+          <t>0,0; 14,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,11; 9,77</t>
+          <t>0,0; 12,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,77; 11,67</t>
+          <t>2,36; 24,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,13; 17,03</t>
+          <t>0,0; 11,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,83; 20,77</t>
+          <t>2,4; 19,9</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,83; 15,97</t>
+          <t>0,0; 12,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,71; 8,04</t>
+          <t>4,48; 26,93</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,38; 10,76</t>
+          <t>5,93; 32,17</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,02; 13,83</t>
+          <t>0,0; 5,8</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,49; 9,39</t>
+          <t>2,4; 13,59</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1,07; 9,16</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1,94; 15,21</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>6,5; 23,83</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>11,25%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>13,59%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>8,6%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>7,81%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>9,45%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>9,62%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,23; 13,03</t>
+          <t>3,14; 14,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,39</t>
+          <t>2,79; 7,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,71; 6,04</t>
+          <t>1,96; 6,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,86</t>
+          <t>2,88; 9,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,82; 14,69</t>
+          <t>2,96; 8,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,57; 13,42</t>
+          <t>10,44; 17,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,76; 13,97</t>
+          <t>9,09; 15,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,29; 14,18</t>
+          <t>8,66; 15,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,31; 12,44</t>
+          <t>10,23; 17,49</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6,13; 9,35</t>
+          <t>10,45; 18,04</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>6,54; 9,46</t>
+          <t>7,91; 14,37</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,79; 10,02</t>
+          <t>6,7; 11,21</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>6,15; 10,09</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>7,53; 12,16</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>7,45; 12,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con sensación de opresión en el pecho con bastante o mucha frecuencia (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2889</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3294</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>21422</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>15492</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>8463</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>16449</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>18284</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>24311</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>18786</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>8463</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>16449</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>18284</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14653</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 16808</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>10132; 36886</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5842; 34105</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2777; 22569</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7308; 33560</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6624; 34792</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>13070; 41414</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6436; 37899</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2719; 20513</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>5879; 32601</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>8157; 39190</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>26888</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12267</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11149</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8174</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>13392</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>30294</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>26313</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>20672</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>19916</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>19989</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>57182</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>38580</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>31821</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>28089</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>33381</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6042; 69477</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2985; 29792</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2704; 27802</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2047; 23503</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2818; 40046</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>16898; 46608</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>11754; 47214</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>9453; 34111</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>9337; 33942</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>8555; 38915</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>31527; 114483</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>21265; 65173</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>17801; 54466</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>14787; 49996</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>14649; 61989</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10500</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>14562</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2517</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>10961</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>10732</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>31027</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>31528</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>25145</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>24066</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>26749</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>41528</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>46090</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>27662</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>35027</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>37480</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2667; 25934</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5616; 32494</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10287</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3295; 26064</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3173; 29244</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18875; 48463</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17941; 51687</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>13723; 40745</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>13009; 39706</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>13458; 44573</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>25733; 61575</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>28324; 71842</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>15063; 45199</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>20414; 52491</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>21321; 62534</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4031</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>4528</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>7909</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>8374</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>5471</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>23054</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>33823</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>29574</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>27891</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>37789</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>27085</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>38351</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>37484</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>36265</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>43260</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 12208</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 13709</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2001; 18294</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3833; 20662</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 18996</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>13086; 37613</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>20748; 52198</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>16689; 43375</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>17748; 41874</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>24497; 58065</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>15649; 43318</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>24379; 59308</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>24370; 55637</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>23186; 53528</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>27188; 64603</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>4011</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>4210</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3957</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>12989</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>14253</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>9893</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>4072</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>8983</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>10228</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>14240</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>13905</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>8282</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>12940</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>23216</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>28492</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 12719</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 12626</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 12670</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3322; 35736</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4393; 27026</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3687; 21765</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 15154</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>3371; 18571</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3468; 19166</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4725; 29244</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>6148; 28268</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2174; 20091</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>5486; 25195</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>10627; 50798</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>14896; 50618</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3468</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2122</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>12534</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2412</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>11927</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4418</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>13269</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>33944</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>2412</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>15394</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>6539</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>13269</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>46477</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15349</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 10549</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3259; 33496</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 11845</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>3304; 27377</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13197</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>4860; 29244</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>12507; 67812</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 11437</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>5920; 33547</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>2037; 17462</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>3857; 30225</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>22669; 83069</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>48320</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>42328</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>27655</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>40498</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>56381</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>118103</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>123155</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>97255</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>111818</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>150994</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>166423</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>165484</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>124910</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>152316</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>207375</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>23696; 110020</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>24869; 67867</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>14947; 48134</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>22700; 72028</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>31009; 89241</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>90618; 150095</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>93942; 156984</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>72401; 127029</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>84165; 143964</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>115823; 199966</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>128357; 233311</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>128998; 215833</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>98369; 161414</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>121352; 196027</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>160603; 269455</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>